--- a/templates/report.xlsx
+++ b/templates/report.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Profiles (Encoded)" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -204,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -318,9 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,6 +340,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,15 +924,15 @@
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>43049</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
@@ -945,82 +954,82 @@
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>6798</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="17">
-        <v>1626</v>
-      </c>
-      <c r="H8" s="17"/>
+      <c r="G8" s="16">
+        <v>3390</v>
+      </c>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="17">
-        <v>142</v>
-      </c>
-      <c r="H9" s="17"/>
+      <c r="G9" s="16">
+        <v>104</v>
+      </c>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="17">
-        <v>623</v>
-      </c>
-      <c r="H10" s="17"/>
+      <c r="G10" s="16">
+        <v>1447</v>
+      </c>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="17">
-        <v>1003</v>
-      </c>
-      <c r="H11" s="17"/>
+      <c r="G11" s="16">
+        <v>1943</v>
+      </c>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="17">
-        <v>428</v>
-      </c>
-      <c r="H12" s="17"/>
+      <c r="G12" s="16">
+        <v>1916</v>
+      </c>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="17">
-        <v>230</v>
-      </c>
-      <c r="H13" s="17"/>
+      <c r="G13" s="16">
+        <v>683</v>
+      </c>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="17">
-        <v>525</v>
-      </c>
-      <c r="H14" s="17"/>
+      <c r="G14" s="16">
+        <v>24</v>
+      </c>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="17">
-        <v>443</v>
-      </c>
-      <c r="H15" s="17"/>
+      <c r="G15" s="16">
+        <v>767</v>
+      </c>
+      <c r="H15" s="16"/>
     </row>
     <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A17" s="8" t="s">
@@ -1030,592 +1039,600 @@
     <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="11"/>
       <c r="B18" s="12">
-        <v>91</v>
-      </c>
-      <c r="C18" s="13">
+        <v>2</v>
+      </c>
+      <c r="C18" s="19">
+        <v>3</v>
+      </c>
+      <c r="D18" s="12">
+        <v>16</v>
+      </c>
+      <c r="E18" s="19">
         <v>1</v>
       </c>
-      <c r="D18" s="12">
-        <v>75</v>
-      </c>
-      <c r="E18" s="13">
-        <v>4</v>
-      </c>
       <c r="F18" s="12">
-        <v>61</v>
-      </c>
-      <c r="G18" s="13">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="G18" s="19">
+        <v>9</v>
       </c>
       <c r="H18" s="12">
-        <v>47</v>
-      </c>
-      <c r="I18" s="13">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="I18" s="19">
+        <v>2</v>
       </c>
       <c r="J18" s="12">
-        <v>33</v>
-      </c>
-      <c r="K18" s="13">
-        <v>8</v>
+        <v>58</v>
+      </c>
+      <c r="K18" s="19">
+        <v>5</v>
       </c>
       <c r="L18" s="12">
-        <v>19</v>
-      </c>
-      <c r="M18" s="13">
+        <v>72</v>
+      </c>
+      <c r="M18" s="19">
+        <v>2</v>
+      </c>
+      <c r="N18" s="12">
+        <v>86</v>
+      </c>
+      <c r="O18" s="19">
         <v>1</v>
-      </c>
-      <c r="N18" s="12">
-        <v>4</v>
-      </c>
-      <c r="O18" s="13">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="11"/>
       <c r="B19" s="12">
-        <v>90</v>
-      </c>
-      <c r="C19" s="13">
+        <v>3</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <v>17</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12">
+        <v>31</v>
+      </c>
+      <c r="G19" s="19">
+        <v>5</v>
+      </c>
+      <c r="H19" s="12">
+        <v>45</v>
+      </c>
+      <c r="I19" s="19">
+        <v>8</v>
+      </c>
+      <c r="J19" s="12">
+        <v>59</v>
+      </c>
+      <c r="K19" s="19">
+        <v>8</v>
+      </c>
+      <c r="L19" s="12">
+        <v>73</v>
+      </c>
+      <c r="M19" s="19">
         <v>2</v>
       </c>
-      <c r="D19" s="12">
-        <v>74</v>
-      </c>
-      <c r="E19" s="13">
-        <v>5</v>
-      </c>
-      <c r="F19" s="12">
-        <v>60</v>
-      </c>
-      <c r="G19" s="13">
-        <v>10</v>
-      </c>
-      <c r="H19" s="12">
-        <v>46</v>
-      </c>
-      <c r="I19" s="13">
-        <v>9</v>
-      </c>
-      <c r="J19" s="12">
-        <v>32</v>
-      </c>
-      <c r="K19" s="13">
-        <v>9</v>
-      </c>
-      <c r="L19" s="12">
-        <v>18</v>
-      </c>
-      <c r="M19" s="13">
-        <v>1</v>
-      </c>
       <c r="N19" s="12">
-        <v>3</v>
-      </c>
-      <c r="O19" s="13">
-        <v>59</v>
+        <v>87</v>
+      </c>
+      <c r="O19" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="11"/>
       <c r="B20" s="12">
+        <v>4</v>
+      </c>
+      <c r="C20" s="19">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>18</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>32</v>
+      </c>
+      <c r="G20" s="19">
+        <v>8</v>
+      </c>
+      <c r="H20" s="12">
+        <v>46</v>
+      </c>
+      <c r="I20" s="19">
+        <v>8</v>
+      </c>
+      <c r="J20" s="12">
+        <v>60</v>
+      </c>
+      <c r="K20" s="19">
+        <v>5</v>
+      </c>
+      <c r="L20" s="12">
+        <v>74</v>
+      </c>
+      <c r="M20" s="19">
+        <v>5</v>
+      </c>
+      <c r="N20" s="12">
         <v>88</v>
       </c>
-      <c r="C20" s="13">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12">
-        <v>73</v>
-      </c>
-      <c r="E20" s="13">
-        <v>4</v>
-      </c>
-      <c r="F20" s="12">
-        <v>59</v>
-      </c>
-      <c r="G20" s="13">
-        <v>10</v>
-      </c>
-      <c r="H20" s="12">
-        <v>45</v>
-      </c>
-      <c r="I20" s="13">
-        <v>9</v>
-      </c>
-      <c r="J20" s="12">
-        <v>31</v>
-      </c>
-      <c r="K20" s="13">
-        <v>8</v>
-      </c>
-      <c r="L20" s="12">
-        <v>16</v>
-      </c>
-      <c r="M20" s="13">
+      <c r="O20" s="19">
         <v>1</v>
-      </c>
-      <c r="N20" s="12">
-        <v>2</v>
-      </c>
-      <c r="O20" s="13">
-        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A21" s="11"/>
       <c r="B21" s="12">
-        <v>87</v>
-      </c>
-      <c r="C21" s="13">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="19">
+        <v>3</v>
       </c>
       <c r="D21" s="12">
-        <v>72</v>
-      </c>
-      <c r="E21" s="13">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0</v>
       </c>
       <c r="F21" s="12">
-        <v>58</v>
-      </c>
-      <c r="G21" s="13">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="G21" s="19">
+        <v>8</v>
       </c>
       <c r="H21" s="12">
-        <v>44</v>
-      </c>
-      <c r="I21" s="13">
-        <v>3</v>
+        <v>47</v>
+      </c>
+      <c r="I21" s="19">
+        <v>12</v>
       </c>
       <c r="J21" s="12">
-        <v>30</v>
-      </c>
-      <c r="K21" s="13">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="K21" s="19">
+        <v>10</v>
       </c>
       <c r="L21" s="12">
-        <v>15</v>
-      </c>
-      <c r="M21" s="13">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="M21" s="19">
+        <v>4</v>
       </c>
       <c r="N21" s="12">
-        <v>1</v>
-      </c>
-      <c r="O21" s="13">
-        <v>15</v>
+        <v>89</v>
+      </c>
+      <c r="O21" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A22" s="11"/>
       <c r="B22" s="12">
-        <v>86</v>
-      </c>
-      <c r="C22" s="13">
+        <v>6</v>
+      </c>
+      <c r="C22" s="19">
+        <v>2</v>
+      </c>
+      <c r="D22" s="12">
+        <v>20</v>
+      </c>
+      <c r="E22" s="19">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
+        <v>34</v>
+      </c>
+      <c r="G22" s="19">
+        <v>9</v>
+      </c>
+      <c r="H22" s="12">
+        <v>48</v>
+      </c>
+      <c r="I22" s="19">
+        <v>2</v>
+      </c>
+      <c r="J22" s="12">
+        <v>62</v>
+      </c>
+      <c r="K22" s="19">
+        <v>9</v>
+      </c>
+      <c r="L22" s="12">
+        <v>76</v>
+      </c>
+      <c r="M22" s="19">
+        <v>3</v>
+      </c>
+      <c r="N22" s="12">
+        <v>90</v>
+      </c>
+      <c r="O22" s="19">
         <v>1</v>
       </c>
-      <c r="D22" s="12">
-        <v>71</v>
-      </c>
-      <c r="E22" s="13">
-        <v>6</v>
-      </c>
-      <c r="F22" s="12">
-        <v>57</v>
-      </c>
-      <c r="G22" s="13">
-        <v>9</v>
-      </c>
-      <c r="H22" s="12">
-        <v>43</v>
-      </c>
-      <c r="I22" s="13">
-        <v>9</v>
-      </c>
-      <c r="J22" s="12">
-        <v>29</v>
-      </c>
-      <c r="K22" s="13">
-        <v>9</v>
-      </c>
-      <c r="L22" s="12">
-        <v>14</v>
-      </c>
-      <c r="M22" s="13">
-        <v>1</v>
-      </c>
-      <c r="N22" s="12"/>
-      <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A23" s="11"/>
       <c r="B23" s="12">
-        <v>85</v>
-      </c>
-      <c r="C23" s="13">
+        <v>7</v>
+      </c>
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
+        <v>21</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12">
+        <v>35</v>
+      </c>
+      <c r="G23" s="19">
+        <v>7</v>
+      </c>
+      <c r="H23" s="12">
+        <v>49</v>
+      </c>
+      <c r="I23" s="19">
+        <v>5</v>
+      </c>
+      <c r="J23" s="12">
+        <v>63</v>
+      </c>
+      <c r="K23" s="19">
+        <v>14</v>
+      </c>
+      <c r="L23" s="12">
+        <v>77</v>
+      </c>
+      <c r="M23" s="19">
         <v>4</v>
       </c>
-      <c r="D23" s="12">
-        <v>70</v>
-      </c>
-      <c r="E23" s="13">
-        <v>7</v>
-      </c>
-      <c r="F23" s="12">
-        <v>56</v>
-      </c>
-      <c r="G23" s="13">
-        <v>8</v>
-      </c>
-      <c r="H23" s="12">
-        <v>42</v>
-      </c>
-      <c r="I23" s="13">
-        <v>8</v>
-      </c>
-      <c r="J23" s="12">
-        <v>28</v>
-      </c>
-      <c r="K23" s="13">
-        <v>8</v>
-      </c>
-      <c r="L23" s="12">
-        <v>13</v>
-      </c>
-      <c r="M23" s="13">
+      <c r="N23" s="12">
+        <v>91</v>
+      </c>
+      <c r="O23" s="19">
         <v>1</v>
       </c>
-      <c r="N23" s="12"/>
-      <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A24" s="11"/>
       <c r="B24" s="12">
-        <v>83</v>
-      </c>
-      <c r="C24" s="13">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
       </c>
       <c r="D24" s="12">
-        <v>69</v>
-      </c>
-      <c r="E24" s="13">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="E24" s="19">
+        <v>2</v>
       </c>
       <c r="F24" s="12">
-        <v>55</v>
-      </c>
-      <c r="G24" s="13">
+        <v>36</v>
+      </c>
+      <c r="G24" s="19">
+        <v>7</v>
+      </c>
+      <c r="H24" s="12">
+        <v>50</v>
+      </c>
+      <c r="I24" s="19">
+        <v>6</v>
+      </c>
+      <c r="J24" s="12">
+        <v>64</v>
+      </c>
+      <c r="K24" s="19">
+        <v>7</v>
+      </c>
+      <c r="L24" s="12">
+        <v>78</v>
+      </c>
+      <c r="M24" s="19">
         <v>4</v>
       </c>
-      <c r="H24" s="12">
-        <v>41</v>
-      </c>
-      <c r="I24" s="13">
-        <v>4</v>
-      </c>
-      <c r="J24" s="12">
-        <v>27</v>
-      </c>
-      <c r="K24" s="13">
-        <v>10</v>
-      </c>
-      <c r="L24" s="12">
-        <v>12</v>
-      </c>
-      <c r="M24" s="13">
-        <v>3</v>
-      </c>
-      <c r="N24" s="12"/>
-      <c r="O24" s="14"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="13"/>
     </row>
     <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A25" s="11"/>
       <c r="B25" s="12">
-        <v>82</v>
-      </c>
-      <c r="C25" s="13">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
       </c>
       <c r="D25" s="12">
-        <v>68</v>
-      </c>
-      <c r="E25" s="13">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="E25" s="19">
+        <v>4</v>
       </c>
       <c r="F25" s="12">
-        <v>54</v>
-      </c>
-      <c r="G25" s="13">
-        <v>9</v>
+        <v>37</v>
+      </c>
+      <c r="G25" s="19">
+        <v>7</v>
       </c>
       <c r="H25" s="12">
-        <v>40</v>
-      </c>
-      <c r="I25" s="13">
-        <v>3</v>
+        <v>51</v>
+      </c>
+      <c r="I25" s="19">
+        <v>4</v>
       </c>
       <c r="J25" s="12">
-        <v>26</v>
-      </c>
-      <c r="K25" s="13">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="K25" s="19">
+        <v>7</v>
       </c>
       <c r="L25" s="12">
-        <v>11</v>
-      </c>
-      <c r="M25" s="13">
+        <v>79</v>
+      </c>
+      <c r="M25" s="19">
         <v>1</v>
       </c>
-      <c r="N25" s="12"/>
-      <c r="O25" s="14"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="13"/>
     </row>
     <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A26" s="11"/>
       <c r="B26" s="12">
-        <v>81</v>
-      </c>
-      <c r="C26" s="13">
+        <v>10</v>
+      </c>
+      <c r="C26" s="19">
         <v>1</v>
       </c>
       <c r="D26" s="12">
-        <v>67</v>
-      </c>
-      <c r="E26" s="13">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="E26" s="19">
+        <v>5</v>
       </c>
       <c r="F26" s="12">
-        <v>53</v>
-      </c>
-      <c r="G26" s="13">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="G26" s="19">
+        <v>5</v>
       </c>
       <c r="H26" s="12">
-        <v>39</v>
-      </c>
-      <c r="I26" s="13">
-        <v>3</v>
+        <v>52</v>
+      </c>
+      <c r="I26" s="19">
+        <v>5</v>
       </c>
       <c r="J26" s="12">
-        <v>25</v>
-      </c>
-      <c r="K26" s="13">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="K26" s="19">
+        <v>4</v>
       </c>
       <c r="L26" s="12">
-        <v>10</v>
-      </c>
-      <c r="M26" s="13">
-        <v>8</v>
-      </c>
-      <c r="N26" s="12"/>
-      <c r="O26" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="M26" s="19">
+        <v>1</v>
+      </c>
+      <c r="N26" s="20"/>
+      <c r="O26" s="13"/>
     </row>
     <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A27" s="11"/>
       <c r="B27" s="12">
-        <v>80</v>
-      </c>
-      <c r="C27" s="13">
+        <v>11</v>
+      </c>
+      <c r="C27" s="19">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>25</v>
+      </c>
+      <c r="E27" s="19">
+        <v>4</v>
+      </c>
+      <c r="F27" s="12">
+        <v>39</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12">
+        <v>53</v>
+      </c>
+      <c r="I27" s="19">
+        <v>6</v>
+      </c>
+      <c r="J27" s="12">
+        <v>67</v>
+      </c>
+      <c r="K27" s="19">
+        <v>5</v>
+      </c>
+      <c r="L27" s="12">
+        <v>81</v>
+      </c>
+      <c r="M27" s="19">
         <v>1</v>
       </c>
-      <c r="D27" s="12">
-        <v>66</v>
-      </c>
-      <c r="E27" s="13">
-        <v>8</v>
-      </c>
-      <c r="F27" s="12">
-        <v>52</v>
-      </c>
-      <c r="G27" s="13">
-        <v>9</v>
-      </c>
-      <c r="H27" s="12">
-        <v>38</v>
-      </c>
-      <c r="I27" s="13">
-        <v>7</v>
-      </c>
-      <c r="J27" s="12">
-        <v>24</v>
-      </c>
-      <c r="K27" s="13">
-        <v>6</v>
-      </c>
-      <c r="L27" s="12">
-        <v>9</v>
-      </c>
-      <c r="M27" s="13">
-        <v>6</v>
-      </c>
-      <c r="N27" s="12"/>
-      <c r="O27" s="14"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="13"/>
     </row>
     <row r="28" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A28" s="11"/>
       <c r="B28" s="12">
-        <v>79</v>
-      </c>
-      <c r="C28" s="13">
+        <v>12</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>26</v>
+      </c>
+      <c r="E28" s="19">
+        <v>5</v>
+      </c>
+      <c r="F28" s="12">
+        <v>40</v>
+      </c>
+      <c r="G28" s="19">
         <v>2</v>
       </c>
-      <c r="D28" s="12">
-        <v>65</v>
-      </c>
-      <c r="E28" s="13">
-        <v>13</v>
-      </c>
-      <c r="F28" s="12">
-        <v>51</v>
-      </c>
-      <c r="G28" s="13">
-        <v>6</v>
-      </c>
       <c r="H28" s="12">
-        <v>37</v>
-      </c>
-      <c r="I28" s="13">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="I28" s="19">
+        <v>7</v>
       </c>
       <c r="J28" s="12">
-        <v>23</v>
-      </c>
-      <c r="K28" s="13">
-        <v>7</v>
+        <v>68</v>
+      </c>
+      <c r="K28" s="19">
+        <v>15</v>
       </c>
       <c r="L28" s="12">
-        <v>8</v>
-      </c>
-      <c r="M28" s="13">
-        <v>6</v>
-      </c>
-      <c r="N28" s="12"/>
-      <c r="O28" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="M28" s="19">
+        <v>2</v>
+      </c>
+      <c r="N28" s="20"/>
+      <c r="O28" s="13"/>
     </row>
     <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A29" s="11"/>
       <c r="B29" s="12">
-        <v>78</v>
-      </c>
-      <c r="C29" s="13">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1</v>
       </c>
       <c r="D29" s="12">
-        <v>64</v>
-      </c>
-      <c r="E29" s="13">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="E29" s="19">
+        <v>4</v>
       </c>
       <c r="F29" s="12">
-        <v>50</v>
-      </c>
-      <c r="G29" s="13">
-        <v>7</v>
+        <v>41</v>
+      </c>
+      <c r="G29" s="19">
+        <v>3</v>
       </c>
       <c r="H29" s="12">
-        <v>36</v>
-      </c>
-      <c r="I29" s="13">
-        <v>15</v>
+        <v>55</v>
+      </c>
+      <c r="I29" s="19">
+        <v>3</v>
       </c>
       <c r="J29" s="12">
-        <v>22</v>
-      </c>
-      <c r="K29" s="13">
-        <v>2</v>
+        <v>69</v>
+      </c>
+      <c r="K29" s="19">
+        <v>8</v>
       </c>
       <c r="L29" s="12">
-        <v>7</v>
-      </c>
-      <c r="M29" s="13">
-        <v>11</v>
-      </c>
-      <c r="N29" s="12"/>
-      <c r="O29" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="M29" s="19">
+        <v>3</v>
+      </c>
+      <c r="N29" s="20"/>
+      <c r="O29" s="13"/>
     </row>
     <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A30" s="11"/>
       <c r="B30" s="12">
-        <v>77</v>
-      </c>
-      <c r="C30" s="13">
+        <v>14</v>
+      </c>
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>28</v>
+      </c>
+      <c r="E30" s="19">
+        <v>8</v>
+      </c>
+      <c r="F30" s="12">
+        <v>42</v>
+      </c>
+      <c r="G30" s="19">
+        <v>7</v>
+      </c>
+      <c r="H30" s="12">
+        <v>56</v>
+      </c>
+      <c r="I30" s="19">
         <v>6</v>
       </c>
-      <c r="D30" s="12">
-        <v>63</v>
-      </c>
-      <c r="E30" s="13">
-        <v>15</v>
-      </c>
-      <c r="F30" s="12">
-        <v>49</v>
-      </c>
-      <c r="G30" s="13">
-        <v>6</v>
-      </c>
-      <c r="H30" s="12">
-        <v>35</v>
-      </c>
-      <c r="I30" s="13">
-        <v>9</v>
-      </c>
       <c r="J30" s="12">
-        <v>21</v>
-      </c>
-      <c r="K30" s="13">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="K30" s="19">
+        <v>4</v>
       </c>
       <c r="L30" s="12">
-        <v>6</v>
-      </c>
-      <c r="M30" s="13">
-        <v>32</v>
-      </c>
-      <c r="N30" s="12"/>
-      <c r="O30" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="M30" s="19">
+        <v>0</v>
+      </c>
+      <c r="N30" s="20"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A31" s="11"/>
       <c r="B31" s="12">
-        <v>76</v>
-      </c>
-      <c r="C31" s="13">
+        <v>15</v>
+      </c>
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>29</v>
+      </c>
+      <c r="E31" s="19">
+        <v>7</v>
+      </c>
+      <c r="F31" s="12">
+        <v>43</v>
+      </c>
+      <c r="G31" s="19">
+        <v>5</v>
+      </c>
+      <c r="H31" s="12">
+        <v>57</v>
+      </c>
+      <c r="I31" s="19">
+        <v>5</v>
+      </c>
+      <c r="J31" s="12">
+        <v>71</v>
+      </c>
+      <c r="K31" s="19">
         <v>4</v>
       </c>
-      <c r="D31" s="12">
-        <v>62</v>
-      </c>
-      <c r="E31" s="13">
-        <v>11</v>
-      </c>
-      <c r="F31" s="12">
-        <v>48</v>
-      </c>
-      <c r="G31" s="13">
+      <c r="L31" s="12">
+        <v>85</v>
+      </c>
+      <c r="M31" s="19">
         <v>3</v>
       </c>
-      <c r="H31" s="12">
-        <v>34</v>
-      </c>
-      <c r="I31" s="13">
-        <v>10</v>
-      </c>
-      <c r="J31" s="12">
-        <v>20</v>
-      </c>
-      <c r="K31" s="13">
-        <v>1</v>
-      </c>
-      <c r="L31" s="12">
-        <v>5</v>
-      </c>
-      <c r="M31" s="13">
-        <v>80</v>
-      </c>
-      <c r="N31" s="12"/>
-      <c r="O31" s="14"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="13"/>
     </row>
     <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A33" s="8" t="s">
@@ -1633,7 +1650,7 @@
       <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <v>326</v>
       </c>
     </row>
@@ -1641,7 +1658,7 @@
       <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <v>29</v>
       </c>
     </row>
@@ -1649,19 +1666,19 @@
       <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="16"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="15">
         <v>2</v>
       </c>
     </row>
@@ -1669,13 +1686,13 @@
       <c r="B39" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="16"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="16"/>
+      <c r="H40" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1691,5 +1708,6 @@
     <mergeCell ref="G11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>